--- a/biology/Botanique/Primulaceae/Primulaceae.xlsx
+++ b/biology/Botanique/Primulaceae/Primulaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Primulaceae (Primulacées en français) sont une famille de plantes à fleurs dicotylédones de l'ordre des Ericales, selon la classification phylogénétique, qui comprend 1 000 espèces réparties en une vingtaine de genres.
 Ce sont des plantes herbacées, le plus souvent pérennes, souvent rhizomateuses ou tubéreuses des régions froides à tropicales. Cette famille est particulièrement présente dans les régions tempérées de l'hémisphère nord.
@@ -517,9 +529,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Primula, du latin Primulus, « tout premier », sous-entendu ver - veris « du Printemps », nom vernaculaire traditionnel de ces plantes en français et en italien[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Primula, du latin Primulus, « tout premier », sous-entendu ver - veris « du Printemps », nom vernaculaire traditionnel de ces plantes en français et en italien.
 </t>
         </is>
       </c>
@@ -548,10 +562,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les contours de cette famille sont encore en discussion (en particulier les liens avec la famille voisine des Myrsinacées).
-La classification phylogénétique APG (1998)[2] situe cette famille dans l'ordre des Ericales et la réduit aux genres suivants :
+La classification phylogénétique APG (1998) situe cette famille dans l'ordre des Ericales et la réduit aux genres suivants :
 Androsace, Bryocarpum, Cortusa, Dionysia, Dodecatheon, Hottonia, Kaufmannia, Omphalogramma, Pomatosace, Primula, Soldanella, Vitaliana.
 			Primula veris.
 			Primula vulgaris.
@@ -587,10 +603,12 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG III (2009)[3] inclut dans cette famille les genres précédemment placés dans les familles Maesaceae, Myrsinaceae, Theophrastaceae.
-Selon Angiosperm Phylogeny Website                        (30 juin 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG III (2009) inclut dans cette famille les genres précédemment placés dans les familles Maesaceae, Myrsinaceae, Theophrastaceae.
+Selon Angiosperm Phylogeny Website                        (30 juin 2010) :
 Androsace
 Bryocarpum
 Cortusa
@@ -603,7 +621,7 @@
 Primula
 Soldanella
 Vitaliana
-Selon NCBI  (30 juin 2010)[5] (Plus conforme à APGIII puisqu'il incorpore les genres anciennement dans Maesaceae, Myrsinaceae, Theophrastaceae) :
+Selon NCBI  (30 juin 2010) (Plus conforme à APGIII puisqu'il incorpore les genres anciennement dans Maesaceae, Myrsinaceae, Theophrastaceae) :
 Aegiceras
 Anagallis
 Androsace
@@ -652,7 +670,7 @@
 Trientalis
 Vitaliana
 Votschia
-Selon DELTA Angio           (30 juin 2010)[6] :
+Selon DELTA Angio           (30 juin 2010) :
 Anagallis
 Androsace
 Ardisiandra
@@ -673,7 +691,7 @@
 Soldanella
 Stimpsonia
 Trientalis
-Selon ITIS      (30 juin 2010)[7] :
+Selon ITIS      (30 juin 2010) :
 Anagallis L.
 Androsace L.
 Centunculus
